--- a/DOWNLOADS/EDITAIS/U_731050_E_592025/U_731050_E_592025_master.xlsx
+++ b/DOWNLOADS/EDITAIS/U_731050_E_592025/U_731050_E_592025_master.xlsx
@@ -43,85 +43,85 @@
     <t>ARQUIVO</t>
   </si>
   <si>
-    <t>BATUTA CLÁSSICA MADEIRA E METAL - JACARANDÁ IMPERIAL 34 / BRANCO</t>
-  </si>
-  <si>
-    <t>PALHETA FAGOTE</t>
-  </si>
-  <si>
-    <t>PALHETA PARA OBOÉ, ARTESANAL, RASPAGEM ALEMÃ</t>
-  </si>
-  <si>
-    <t>PALHETA 3 MEDIUM "RIGOTTI JAZZ", SAX TENOR, CAIXA C/ 10</t>
-  </si>
-  <si>
-    <t>PALHETA 2.5 "JAVA - VANDOREN", SAX ALTO, CAIXA C/ 10</t>
-  </si>
-  <si>
-    <t>PALHETA 2.5 "VANDOREN", SAX BARÍTONO, CAIXA C/ 5</t>
-  </si>
-  <si>
-    <t>PALHETA VANDOREM PARA CLARINETE CONTRA BAIXO N 2,5, CAIXA C/5</t>
-  </si>
-  <si>
-    <t>PALHETA VANDOREM PARA CLARINETE, Nº 3¹/², CAIXA C/10</t>
-  </si>
-  <si>
-    <t>PALHETA VANDOREM PARA CLARONE, Nº 3, CAIXA C/5</t>
-  </si>
-  <si>
-    <t>PALHETA VANDOREM PARA REQUINTA, Nº 3¹/², CAIXA C/10</t>
-  </si>
-  <si>
-    <t>ENCORDOAMENTO CONTRABAIXO ELÉTRICO 5 CORDAS - ELIXIR STRINGS NÍQUEL DE AÇO (0.45)</t>
-  </si>
-  <si>
-    <t>ENCORDOAMENTO P/ VIOLONCELO LARSEN MAGNACORE VIOLONCELO MEDIUM</t>
-  </si>
-  <si>
-    <t>ENCORDOAMENTO DE GUITARRA ELIXIR 010 LIGHT NANOWEB 3216</t>
-  </si>
-  <si>
-    <t>BANCO MICHAEL DMHT430 ASSENTO SELIM E AJUSTE DE ALTURA DE ROSCA</t>
-  </si>
-  <si>
-    <t>15’’ PELE DE SURDO PEARL TENOR (ATAQUE)</t>
-  </si>
-  <si>
-    <t>PELES EVANS 14POL. HD DRY COATES FILME DUPLO COM ANEL ABAFADOR</t>
-  </si>
-  <si>
-    <t>PELES REMO 14POL. AMBASSADOR HAZY FILMES SIMPLES RESPOSTA DE CAIXA</t>
-  </si>
-  <si>
-    <t>PELES BATEDEIRA EVANS EMAD 2 , 22POL.</t>
-  </si>
-  <si>
-    <t>PELES PEAR 22POL. COATED RESPOSTA COM FURO</t>
-  </si>
-  <si>
-    <t>PELE POROSA PARA CAIXA 14”</t>
-  </si>
-  <si>
-    <t>PELE RESPOSTA PARA CAIXA 14”</t>
-  </si>
-  <si>
-    <t>PELE HIDRÁULICA BUMBO 22”</t>
-  </si>
-  <si>
-    <t>PELE RESPOSTA LEITOSA BUMBO 22”</t>
-  </si>
-  <si>
-    <t>PELE REMO PINSTRIPE 22” TRANSP</t>
-  </si>
-  <si>
-    <t>PELE REMO AMBASSADOR 14” POROSA</t>
-  </si>
-  <si>
-    <t>PELE REMO AMBASSADOR HAZY 14” RESPOSTA</t>
-  </si>
-  <si>
-    <t>PELE REMO PINSTRIPE 16” TRANSP</t>
+    <t>Batuta clássica madeira e metal - Jacarandá Imperial 34 / Branco</t>
+  </si>
+  <si>
+    <t>Palheta fagote</t>
+  </si>
+  <si>
+    <t>Palheta para oboé, artesanal, raspagem alemá</t>
+  </si>
+  <si>
+    <t>RIGOTTI JAZZ sax tenor, caixa com 10 palhetas 2.5 Java - Vandoren</t>
+  </si>
+  <si>
+    <t>Vandoren sax alto, caixa com 10 palhetas 2.5</t>
+  </si>
+  <si>
+    <t>Vandoren sax baritono, caixa com 5 palhetas Vandoren para clarinete</t>
+  </si>
+  <si>
+    <t>Contra baixo nº 2,5, caixa com 5 palhetas Vandoren para clarinete</t>
+  </si>
+  <si>
+    <t>Para clarinete, nº 3 ½, caixa com 10 palhetas Vandoren</t>
+  </si>
+  <si>
+    <t>Para clarone, nº 3, caixa com 5 palhetas Vandoren</t>
+  </si>
+  <si>
+    <t>Para requinta, nº 3 ½, caixa com 10</t>
+  </si>
+  <si>
+    <t>Encordoamento contrabaixo elétrico 5 cordas Elixir 0.45</t>
+  </si>
+  <si>
+    <t>Encordoamento violoncelo Larsen Magnacore Medium</t>
+  </si>
+  <si>
+    <t>Encordoamento guitarra Elixir 010 Light Nanoweb 3216</t>
+  </si>
+  <si>
+    <t>Banco Michael DMHT430 Selim, ajuste de altura de rosca 15’’</t>
+  </si>
+  <si>
+    <t>Pele de surdo 15’’ Pearl Tenor (ataque), perles Evans 14Pol HD Dry Coates filme</t>
+  </si>
+  <si>
+    <t>Peles dupla com anel abafador</t>
+  </si>
+  <si>
+    <t>Pele bateadeira Evans, filmes simples resposta de caixa</t>
+  </si>
+  <si>
+    <t>Peles EMAD 2 e Peal 22POL</t>
+  </si>
+  <si>
+    <t>Pele porosa para resposta com furo (coated resposta)</t>
+  </si>
+  <si>
+    <t>Pele resposta para caixa 14’’ (caixa 14”)</t>
+  </si>
+  <si>
+    <t>Pele hidráulica (caixa 14”)</t>
+  </si>
+  <si>
+    <t>Pele resposta leitoso bumbo 22’’ (bumbo 22”)</t>
+  </si>
+  <si>
+    <t>Pele remo pinstripe bumbo 22’’ (bumbo 22”)</t>
+  </si>
+  <si>
+    <t>Pele remo 22’’ transparente</t>
+  </si>
+  <si>
+    <t>Pele remo porosa 14’’</t>
+  </si>
+  <si>
+    <t>Pele remo pinstripe 14’’ resposta</t>
+  </si>
+  <si>
+    <t>Pele transparente 16’’</t>
   </si>
   <si>
     <t>U_731050_E_592025</t>
